--- a/DragAndDrop/Assets/5.Data/Lightning_excel.xlsx
+++ b/DragAndDrop/Assets/5.Data/Lightning_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\01.junheeStudy\Team_Project\idle\DragAndDrop\Assets\5.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1186507C-4E8B-4BB9-B739-2E72F1059568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213D050C-CAEF-4BAC-A4EC-131FC33CD75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19680" yWindow="375" windowWidth="8865" windowHeight="11385" xr2:uid="{0E70A107-4BC1-4A68-AEEE-010F83298A2E}"/>
+    <workbookView xWindow="11805" yWindow="3075" windowWidth="8865" windowHeight="11385" xr2:uid="{0E70A107-4BC1-4A68-AEEE-010F83298A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D92F4B2-BE02-4DE1-9FC6-274E96E3B48D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,7 +477,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>69.900000000000006</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -521,10 +521,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>72.75</v>
+        <v>70.150000000000006</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>75</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>75.75</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -554,12 +554,56 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>72.75</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>75.75</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>78</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
